--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yariv\Schoolwerk\Academiejaar 2024-2025\Parallel and Distributed Programming\Semester Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yariv\OneDrive - Universiteit Antwerpen\Bureaublad\Academiejaar 2024-2025\Parallel and Distributed Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43693128-C12B-41D7-93FD-DD62B602DC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC097D-2EA3-455C-8C05-E2E2E5488CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequential Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="Task Parallelism" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Parallelism" sheetId="3" r:id="rId3"/>
+    <sheet name="Distributed Memory" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="24">
   <si>
     <t xml:space="preserve">Amount of Vertices </t>
   </si>
@@ -85,9 +87,6 @@
     <t>graf_40_25.txt</t>
   </si>
   <si>
-    <t>Local Execution Time (s)</t>
-  </si>
-  <si>
     <t>Cluster Execution Time (s)</t>
   </si>
   <si>
@@ -98,6 +97,9 @@
   </si>
   <si>
     <t>Minimum Edge Cut Weight</t>
+  </si>
+  <si>
+    <t>Number of nodes</t>
   </si>
 </sst>
 </file>
@@ -141,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -648,11 +650,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -686,9 +817,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,51 +840,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -766,6 +849,142 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,11 +1277,10 @@
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1073,19 +1291,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1098,17 +1313,14 @@
       <c r="D2" s="16">
         <v>974</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="20">
         <v>208</v>
       </c>
       <c r="F2" s="17">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="20">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1121,17 +1333,14 @@
       <c r="D3" s="4">
         <v>1300</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>213</v>
       </c>
       <c r="F3" s="18">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G3" s="21">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1144,17 +1353,14 @@
       <c r="D4" s="4">
         <v>1593</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>314</v>
       </c>
       <c r="F4" s="18">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G4" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1167,17 +1373,14 @@
       <c r="D5" s="4">
         <v>4963</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>4584</v>
       </c>
       <c r="F5" s="18">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G5" s="21">
         <v>0.104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1190,17 +1393,14 @@
       <c r="D6" s="4">
         <v>2110</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>7469</v>
       </c>
       <c r="F6" s="18">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="G6" s="21">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1213,17 +1413,14 @@
       <c r="D7" s="4">
         <v>2378</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>14569</v>
       </c>
       <c r="F7" s="18">
-        <v>0.107</v>
-      </c>
-      <c r="G7" s="21">
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1236,17 +1433,14 @@
       <c r="D8" s="4">
         <v>5060</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>50201</v>
       </c>
       <c r="F8" s="18">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="G8" s="21">
         <v>1.8260000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1259,17 +1453,14 @@
       <c r="D9" s="4">
         <v>7995</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>107365</v>
       </c>
       <c r="F9" s="18">
-        <v>0.503</v>
-      </c>
-      <c r="G9" s="21">
         <v>3.6709999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1282,17 +1473,14 @@
       <c r="D10" s="4">
         <v>4636</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>735262</v>
       </c>
       <c r="F10" s="18">
-        <v>6.5789999999999997</v>
-      </c>
-      <c r="G10" s="21">
         <v>44.546999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1305,17 +1493,14 @@
       <c r="D11" s="4">
         <v>5333</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>1293480</v>
       </c>
-      <c r="F11" s="18">
-        <v>14.494</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="23">
+        <v>94.486000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1328,17 +1513,14 @@
       <c r="D12" s="4">
         <v>13159</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>10336069</v>
       </c>
-      <c r="F12" s="18">
-        <v>87.653999999999996</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="23">
+        <v>694.70500000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1351,17 +1533,14 @@
       <c r="D13" s="4">
         <v>13707</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>9444207</v>
       </c>
-      <c r="F13" s="18">
-        <v>54.649000000000001</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="23">
+        <v>558.93899999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1371,20 +1550,17 @@
       <c r="C14" s="5">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
-        <v>18114</v>
-      </c>
-      <c r="E14" s="24">
-        <v>40114828</v>
-      </c>
-      <c r="F14" s="18">
-        <v>230.38900000000001</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1394,14 +1570,17 @@
       <c r="C15" s="5">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1411,14 +1590,17 @@
       <c r="C16" s="5">
         <v>17</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1428,14 +1610,17 @@
       <c r="C17" s="5">
         <v>15</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1445,14 +1630,17 @@
       <c r="C18" s="5">
         <v>20</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1462,14 +1650,17 @@
       <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1479,14 +1670,17 @@
       <c r="C20" s="5">
         <v>20</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -1496,11 +1690,14 @@
       <c r="C21" s="7">
         <v>20</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="27" t="s">
-        <v>21</v>
+      <c r="D21" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
@@ -1515,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F9DC20-EC7F-4629-AF46-04EF52C0FF06}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -1544,47 +1741,47 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="51">
         <v>15</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="54">
         <v>5</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="57">
         <v>4963</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="32">
         <v>4584</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="26">
         <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="32">
+      <c r="A3" s="49"/>
+      <c r="B3" s="29">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="51">
+      <c r="C3" s="52"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="33">
         <v>4621</v>
       </c>
       <c r="G3" s="5">
@@ -1592,14 +1789,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="32">
+      <c r="A4" s="49"/>
+      <c r="B4" s="29">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="24">
+      <c r="C4" s="52"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="21">
         <v>4618</v>
       </c>
       <c r="G4" s="5">
@@ -1607,14 +1804,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="32">
+      <c r="A5" s="49"/>
+      <c r="B5" s="29">
         <v>8</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="24">
+      <c r="C5" s="52"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="21">
         <v>4650</v>
       </c>
       <c r="G5" s="5">
@@ -1622,14 +1819,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="32">
+      <c r="A6" s="49"/>
+      <c r="B6" s="29">
         <v>16</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="24">
+      <c r="C6" s="52"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="21">
         <v>4686</v>
       </c>
       <c r="G6" s="5">
@@ -1637,14 +1834,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="32">
+      <c r="A7" s="49"/>
+      <c r="B7" s="29">
         <v>32</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="24">
+      <c r="C7" s="52"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="21">
         <v>4659</v>
       </c>
       <c r="G7" s="5">
@@ -1652,52 +1849,52 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
-      <c r="B8" s="33">
+      <c r="A8" s="62"/>
+      <c r="B8" s="30">
         <v>48</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="52">
+      <c r="C8" s="61"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="34">
         <v>4669</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="28">
         <v>1</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="51">
         <v>30</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="54">
         <v>15</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="57">
         <v>5333</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <v>1293480</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="26">
         <v>101.828</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="32">
+      <c r="A10" s="49"/>
+      <c r="B10" s="29">
         <v>2</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="24">
+      <c r="C10" s="52"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="21">
         <v>1336774</v>
       </c>
       <c r="G10" s="5">
@@ -1705,14 +1902,14 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="32">
+      <c r="A11" s="49"/>
+      <c r="B11" s="29">
         <v>4</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="24">
+      <c r="C11" s="52"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="21">
         <v>1406075</v>
       </c>
       <c r="G11" s="5">
@@ -1720,14 +1917,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="32">
+      <c r="A12" s="49"/>
+      <c r="B12" s="29">
         <v>8</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="24">
+      <c r="C12" s="52"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="21">
         <v>1514693</v>
       </c>
       <c r="G12" s="5">
@@ -1735,14 +1932,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="32">
+      <c r="A13" s="49"/>
+      <c r="B13" s="29">
         <v>16</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="24">
+      <c r="C13" s="52"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="21">
         <v>1547458</v>
       </c>
       <c r="G13" s="5">
@@ -1750,14 +1947,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="32">
+      <c r="A14" s="49"/>
+      <c r="B14" s="29">
         <v>32</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="24">
+      <c r="C14" s="52"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="21">
         <v>1516235</v>
       </c>
       <c r="G14" s="5">
@@ -1765,14 +1962,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="34">
+      <c r="A15" s="50"/>
+      <c r="B15" s="31">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="25">
+      <c r="C15" s="53"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="22">
         <v>1356748</v>
       </c>
       <c r="G15" s="7">
@@ -1780,37 +1977,37 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="28">
         <v>1</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="51">
         <v>30</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="54">
         <v>15</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="57">
         <v>13159</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="20">
         <v>10336069</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="26">
         <v>735.92899999999997</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="32">
+      <c r="A17" s="49"/>
+      <c r="B17" s="29">
         <v>2</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="24">
+      <c r="C17" s="52"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="21">
         <v>10395992</v>
       </c>
       <c r="G17" s="5">
@@ -1818,14 +2015,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="32">
+      <c r="A18" s="49"/>
+      <c r="B18" s="29">
         <v>4</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="24">
+      <c r="C18" s="52"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="21">
         <v>10590364</v>
       </c>
       <c r="G18" s="5">
@@ -1833,14 +2030,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="32">
+      <c r="A19" s="49"/>
+      <c r="B19" s="29">
         <v>8</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="24">
+      <c r="C19" s="52"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="21">
         <v>10681407</v>
       </c>
       <c r="G19" s="5">
@@ -1848,14 +2045,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="32">
+      <c r="A20" s="49"/>
+      <c r="B20" s="29">
         <v>16</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="24">
+      <c r="C20" s="52"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="21">
         <v>10665845</v>
       </c>
       <c r="G20" s="5">
@@ -1863,14 +2060,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="32">
+      <c r="A21" s="49"/>
+      <c r="B21" s="29">
         <v>32</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="24">
+      <c r="C21" s="52"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="21">
         <v>10841156</v>
       </c>
       <c r="G21" s="5">
@@ -1878,14 +2075,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="34">
+      <c r="A22" s="50"/>
+      <c r="B22" s="31">
         <v>48</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="25">
+      <c r="C22" s="53"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="22">
         <v>10453438</v>
       </c>
       <c r="G22" s="7">
@@ -1893,37 +2090,37 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="28">
         <v>1</v>
       </c>
-      <c r="C23" s="35">
-        <v>35</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="C23" s="51">
+        <v>32</v>
+      </c>
+      <c r="D23" s="54">
         <v>10</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="57">
         <v>13707</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="20">
         <v>9444207</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="26">
         <v>575.31299999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="32">
+      <c r="A24" s="49"/>
+      <c r="B24" s="29">
         <v>2</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="24">
+      <c r="C24" s="52"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="21">
         <v>7328170</v>
       </c>
       <c r="G24" s="5">
@@ -1931,14 +2128,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="32">
+      <c r="A25" s="49"/>
+      <c r="B25" s="29">
         <v>4</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="24">
+      <c r="C25" s="52"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="21">
         <v>7322854</v>
       </c>
       <c r="G25" s="5">
@@ -1946,14 +2143,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="32">
+      <c r="A26" s="49"/>
+      <c r="B26" s="29">
         <v>8</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="24">
+      <c r="C26" s="52"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="21">
         <v>7211756</v>
       </c>
       <c r="G26" s="5">
@@ -1961,14 +2158,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="32">
+      <c r="A27" s="49"/>
+      <c r="B27" s="29">
         <v>16</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="24">
+      <c r="C27" s="52"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="21">
         <v>7258923</v>
       </c>
       <c r="G27" s="5">
@@ -1976,14 +2173,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="32">
+      <c r="A28" s="49"/>
+      <c r="B28" s="29">
         <v>32</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="24">
+      <c r="C28" s="52"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="21">
         <v>7210229</v>
       </c>
       <c r="G28" s="5">
@@ -1991,14 +2188,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="44"/>
-      <c r="B29" s="34">
+      <c r="A29" s="50"/>
+      <c r="B29" s="31">
         <v>48</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="25">
+      <c r="C29" s="53"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="22">
         <v>7270724</v>
       </c>
       <c r="G29" s="7">
@@ -2006,37 +2203,37 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="28">
         <v>1</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="51">
         <v>32</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="54">
         <v>12</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="57">
         <v>18114</v>
       </c>
-      <c r="F30" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="53" t="s">
-        <v>21</v>
+      <c r="F30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="32">
+      <c r="A31" s="49"/>
+      <c r="B31" s="29">
         <v>2</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="24">
+      <c r="C31" s="52"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="21">
         <v>31805528</v>
       </c>
       <c r="G31" s="5">
@@ -2044,14 +2241,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="32">
+      <c r="A32" s="49"/>
+      <c r="B32" s="29">
         <v>4</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="24">
+      <c r="C32" s="52"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="21">
         <v>31050150</v>
       </c>
       <c r="G32" s="5">
@@ -2059,14 +2256,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="32">
+      <c r="A33" s="49"/>
+      <c r="B33" s="29">
         <v>8</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="24">
+      <c r="C33" s="52"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="21">
         <v>30180250</v>
       </c>
       <c r="G33" s="5">
@@ -2074,14 +2271,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="32">
+      <c r="A34" s="49"/>
+      <c r="B34" s="29">
         <v>16</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="24">
+      <c r="C34" s="52"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="21">
         <v>30605903</v>
       </c>
       <c r="G34" s="5">
@@ -2089,14 +2286,14 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="32">
+      <c r="A35" s="49"/>
+      <c r="B35" s="29">
         <v>32</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="24">
+      <c r="C35" s="52"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="21">
         <v>30588933</v>
       </c>
       <c r="G35" s="5">
@@ -2104,80 +2301,82 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
-      <c r="B36" s="34">
+      <c r="A36" s="50"/>
+      <c r="B36" s="31">
         <v>48</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="25">
+      <c r="C36" s="53"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="22">
         <v>30058558</v>
       </c>
       <c r="G36" s="7">
         <v>48.576999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="41" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="28">
         <v>1</v>
       </c>
-      <c r="C37" s="35">
-        <v>40</v>
-      </c>
-      <c r="D37" s="38">
-        <v>20</v>
-      </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="42"/>
-      <c r="B38" s="32">
+      <c r="C37" s="51">
+        <v>35</v>
+      </c>
+      <c r="D37" s="54">
+        <v>12</v>
+      </c>
+      <c r="E37" s="57">
+        <v>18711</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="29">
         <v>2</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="53" t="s">
-        <v>21</v>
+      <c r="C38" s="52"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="32">
+      <c r="A39" s="49"/>
+      <c r="B39" s="29">
         <v>4</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="53" t="s">
-        <v>21</v>
+      <c r="C39" s="52"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="32">
+      <c r="A40" s="49"/>
+      <c r="B40" s="29">
         <v>8</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="24">
+      <c r="C40" s="52"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="21">
         <v>97622039</v>
       </c>
       <c r="G40" s="5">
@@ -2185,169 +2384,181 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="32">
+      <c r="A41" s="49"/>
+      <c r="B41" s="29">
         <v>16</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="5"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="21">
+        <v>97415975</v>
+      </c>
+      <c r="G41" s="5">
+        <v>457.572</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="32">
+      <c r="A42" s="49"/>
+      <c r="B42" s="29">
         <v>32</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="5"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="21">
+        <v>96004508</v>
+      </c>
+      <c r="G42" s="5">
+        <v>236.274</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="34">
+      <c r="A43" s="50"/>
+      <c r="B43" s="31">
         <v>48</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="7"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="22">
+        <v>90160822</v>
+      </c>
+      <c r="G43" s="7">
+        <v>156.66</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="51"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F45" s="51"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F46" s="51"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F47" s="51"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F48" s="51"/>
+      <c r="F48" s="33"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F49" s="51"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F50" s="51"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F51" s="51"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F52" s="51"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F53" s="51"/>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F54" s="51"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F55" s="51"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F56" s="51"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F57" s="51"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F58" s="51"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F59" s="51"/>
+      <c r="F59" s="33"/>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F60" s="51"/>
+      <c r="F60" s="33"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F61" s="51"/>
+      <c r="F61" s="33"/>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F62" s="51"/>
+      <c r="F62" s="33"/>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F63" s="51"/>
+      <c r="F63" s="33"/>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F64" s="51"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F65" s="51"/>
+      <c r="F65" s="33"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F66" s="51"/>
+      <c r="F66" s="33"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F67" s="51"/>
+      <c r="F67" s="33"/>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F68" s="51"/>
+      <c r="F68" s="33"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F69" s="51"/>
+      <c r="F69" s="33"/>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F70" s="51"/>
+      <c r="F70" s="33"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F71" s="51"/>
+      <c r="F71" s="33"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F72" s="51"/>
+      <c r="F72" s="33"/>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F73" s="51"/>
+      <c r="F73" s="33"/>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F74" s="51"/>
+      <c r="F74" s="33"/>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F75" s="51"/>
+      <c r="F75" s="33"/>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F76" s="51"/>
+      <c r="F76" s="33"/>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F77" s="51"/>
+      <c r="F77" s="33"/>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F78" s="51"/>
+      <c r="F78" s="33"/>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F79" s="51"/>
+      <c r="F79" s="33"/>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F80" s="51"/>
+      <c r="F80" s="33"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F81" s="51"/>
+      <c r="F81" s="33"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F82" s="51"/>
+      <c r="F82" s="33"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F83" s="51"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F84" s="51"/>
+      <c r="F84" s="33"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F85" s="51"/>
+      <c r="F85" s="33"/>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F86" s="51"/>
+      <c r="F86" s="33"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F87" s="51"/>
+      <c r="F87" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2378,4 +2589,1996 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9505A24-415E-459C-AFF7-B58EC2C715FF}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="28">
+        <v>1</v>
+      </c>
+      <c r="C2" s="51">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54">
+        <v>5</v>
+      </c>
+      <c r="E2" s="57">
+        <v>4963</v>
+      </c>
+      <c r="F2" s="32">
+        <v>3989</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="29">
+        <v>2</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="33">
+        <v>3990</v>
+      </c>
+      <c r="G3" s="5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="29">
+        <v>4</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="21">
+        <v>3988</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="29">
+        <v>8</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="21">
+        <v>3989</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="29">
+        <v>16</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="21">
+        <v>3993</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="29">
+        <v>32</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="21">
+        <v>3988</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="62"/>
+      <c r="B8" s="30">
+        <v>48</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="34">
+        <v>3993</v>
+      </c>
+      <c r="G8" s="27">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="51">
+        <v>30</v>
+      </c>
+      <c r="D9" s="54">
+        <v>15</v>
+      </c>
+      <c r="E9" s="57">
+        <v>5333</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1292457</v>
+      </c>
+      <c r="G9" s="26">
+        <v>108.926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="29">
+        <v>2</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="21">
+        <v>1297947</v>
+      </c>
+      <c r="G10" s="5">
+        <v>54.905999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="29">
+        <v>4</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="21">
+        <v>1292773</v>
+      </c>
+      <c r="G11" s="5">
+        <v>27.629000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="29">
+        <v>8</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="21">
+        <v>1275946</v>
+      </c>
+      <c r="G12" s="5">
+        <v>13.955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="29">
+        <v>16</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="21">
+        <v>1259385</v>
+      </c>
+      <c r="G13" s="5">
+        <v>6.9249999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="29">
+        <v>32</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="21">
+        <v>1287731</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3.9279999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="50"/>
+      <c r="B15" s="31">
+        <v>48</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="22">
+        <v>1280998</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.8519999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="28">
+        <v>1</v>
+      </c>
+      <c r="C16" s="51">
+        <v>30</v>
+      </c>
+      <c r="D16" s="54">
+        <v>15</v>
+      </c>
+      <c r="E16" s="57">
+        <v>13159</v>
+      </c>
+      <c r="F16" s="20">
+        <v>10335046</v>
+      </c>
+      <c r="G16" s="26">
+        <v>827.64300000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="29">
+        <v>2</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="21">
+        <v>10336028</v>
+      </c>
+      <c r="G17" s="5">
+        <v>402.13499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="29">
+        <v>4</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="21">
+        <v>10340487</v>
+      </c>
+      <c r="G18" s="5">
+        <v>258.71300000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="29">
+        <v>8</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="21">
+        <v>10359816</v>
+      </c>
+      <c r="G19" s="5">
+        <v>193.833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="29">
+        <v>16</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="21">
+        <v>10397322</v>
+      </c>
+      <c r="G20" s="5">
+        <v>91.527000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="49"/>
+      <c r="B21" s="29">
+        <v>32</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="21">
+        <v>10324851</v>
+      </c>
+      <c r="G21" s="5">
+        <v>27.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="50"/>
+      <c r="B22" s="31">
+        <v>48</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="22">
+        <v>10357934</v>
+      </c>
+      <c r="G22" s="7">
+        <v>19.861000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="28">
+        <v>1</v>
+      </c>
+      <c r="C23" s="51">
+        <v>32</v>
+      </c>
+      <c r="D23" s="54">
+        <v>10</v>
+      </c>
+      <c r="E23" s="57">
+        <v>13707</v>
+      </c>
+      <c r="F23" s="20">
+        <v>9443184</v>
+      </c>
+      <c r="G23" s="26">
+        <v>648.44899999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="29">
+        <v>2</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="21">
+        <v>9494034</v>
+      </c>
+      <c r="G24" s="5">
+        <v>325.99700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="29">
+        <v>4</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="21">
+        <v>9467357</v>
+      </c>
+      <c r="G25" s="5">
+        <v>164.03899999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="49"/>
+      <c r="B26" s="29">
+        <v>8</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="21">
+        <v>9226930</v>
+      </c>
+      <c r="G26" s="5">
+        <v>81.346000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="49"/>
+      <c r="B27" s="29">
+        <v>16</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="21">
+        <v>9142176</v>
+      </c>
+      <c r="G27" s="5">
+        <v>41.892000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="49"/>
+      <c r="B28" s="29">
+        <v>32</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="21">
+        <v>9028389</v>
+      </c>
+      <c r="G28" s="5">
+        <v>24.971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="50"/>
+      <c r="B29" s="31">
+        <v>48</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="22">
+        <v>8805703</v>
+      </c>
+      <c r="G29" s="7">
+        <v>19.437000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="28">
+        <v>1</v>
+      </c>
+      <c r="C30" s="51">
+        <v>32</v>
+      </c>
+      <c r="D30" s="54">
+        <v>12</v>
+      </c>
+      <c r="E30" s="57">
+        <v>18114</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="29">
+        <v>2</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="21">
+        <v>40171385</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1398.6590000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="29">
+        <v>4</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="21">
+        <v>40275082</v>
+      </c>
+      <c r="G32" s="5">
+        <v>628.66899999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="29">
+        <v>8</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="21">
+        <v>40000036</v>
+      </c>
+      <c r="G33" s="5">
+        <v>314.55200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="29">
+        <v>16</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="21">
+        <v>39751530</v>
+      </c>
+      <c r="G34" s="5">
+        <v>162.26400000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="29">
+        <v>32</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="21">
+        <v>40121203</v>
+      </c>
+      <c r="G35" s="5">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="50"/>
+      <c r="B36" s="31">
+        <v>48</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="22">
+        <v>40460306</v>
+      </c>
+      <c r="G36" s="7">
+        <v>66.159000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="28">
+        <v>1</v>
+      </c>
+      <c r="C37" s="51">
+        <v>35</v>
+      </c>
+      <c r="D37" s="54">
+        <v>12</v>
+      </c>
+      <c r="E37" s="57">
+        <v>18711</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="29">
+        <v>2</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="49"/>
+      <c r="B39" s="29">
+        <v>4</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="49"/>
+      <c r="B40" s="29">
+        <v>8</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="21">
+        <v>89800935</v>
+      </c>
+      <c r="G40" s="5">
+        <v>805.86400000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="49"/>
+      <c r="B41" s="29">
+        <v>16</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="21">
+        <v>88750445</v>
+      </c>
+      <c r="G41" s="5">
+        <v>411.58600000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="49"/>
+      <c r="B42" s="29">
+        <v>32</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="21">
+        <v>86070356</v>
+      </c>
+      <c r="G42" s="5">
+        <v>223.947</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="50"/>
+      <c r="B43" s="31">
+        <v>48</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="22">
+        <v>86400302</v>
+      </c>
+      <c r="G43" s="7">
+        <v>166.44800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="D37:D43"/>
+    <mergeCell ref="E37:E43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCD99B5-DD6B-4E99-991F-B33727EA3279}">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" style="82" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="72">
+        <v>2</v>
+      </c>
+      <c r="C2" s="43">
+        <v>4</v>
+      </c>
+      <c r="D2" s="57">
+        <v>15</v>
+      </c>
+      <c r="E2" s="63">
+        <v>5</v>
+      </c>
+      <c r="F2" s="66">
+        <v>4963</v>
+      </c>
+      <c r="G2" s="76">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="70"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="23">
+        <v>16</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="77">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="70"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="24">
+        <v>48</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="78">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="70"/>
+      <c r="B5" s="72">
+        <v>3</v>
+      </c>
+      <c r="C5" s="43">
+        <v>4</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="76">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="70"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="23">
+        <v>16</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="77">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="70"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="24">
+        <v>48</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="78">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="70"/>
+      <c r="B8" s="69">
+        <v>4</v>
+      </c>
+      <c r="C8" s="43">
+        <v>4</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="79">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="23">
+        <v>16</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="80">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="24">
+        <v>48</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="81">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="70"/>
+      <c r="B11" s="69">
+        <v>5</v>
+      </c>
+      <c r="C11" s="43">
+        <v>4</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="79">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="23">
+        <v>16</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="80">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="24">
+        <v>48</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="81">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="72">
+        <v>2</v>
+      </c>
+      <c r="C15" s="43">
+        <v>4</v>
+      </c>
+      <c r="D15" s="57">
+        <v>30</v>
+      </c>
+      <c r="E15" s="63">
+        <v>15</v>
+      </c>
+      <c r="F15" s="66">
+        <v>5333</v>
+      </c>
+      <c r="G15" s="76">
+        <v>25.190999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="70"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="23">
+        <v>16</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="77">
+        <v>7.157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="70"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="24">
+        <v>48</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="78">
+        <v>2.8740000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="70"/>
+      <c r="B18" s="72">
+        <v>3</v>
+      </c>
+      <c r="C18" s="43">
+        <v>4</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="76">
+        <v>15.803000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="70"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="23">
+        <v>16</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="77">
+        <v>4.3040000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="70"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="24">
+        <v>48</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="78">
+        <v>1.6140000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="70"/>
+      <c r="B21" s="69">
+        <v>4</v>
+      </c>
+      <c r="C21" s="43">
+        <v>4</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="79">
+        <v>10.419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="23">
+        <v>16</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="80">
+        <v>2.9820000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="24">
+        <v>48</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="81">
+        <v>1.1559999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="70"/>
+      <c r="B24" s="69">
+        <v>5</v>
+      </c>
+      <c r="C24" s="43">
+        <v>4</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="79">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="23">
+        <v>16</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="80">
+        <v>2.5739999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="24">
+        <v>48</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="81">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="72">
+        <v>2</v>
+      </c>
+      <c r="C28" s="43">
+        <v>4</v>
+      </c>
+      <c r="D28" s="57">
+        <v>30</v>
+      </c>
+      <c r="E28" s="63">
+        <v>15</v>
+      </c>
+      <c r="F28" s="66">
+        <v>13159</v>
+      </c>
+      <c r="G28" s="76">
+        <v>186.35300000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="70"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="23">
+        <v>16</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="77">
+        <v>53.031999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="70"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="24">
+        <v>48</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="78">
+        <v>20.684999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="70"/>
+      <c r="B31" s="72">
+        <v>3</v>
+      </c>
+      <c r="C31" s="43">
+        <v>4</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="76">
+        <v>108.43300000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="70"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="23">
+        <v>16</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="77">
+        <v>30.152999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="70"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="24">
+        <v>48</v>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="78">
+        <v>11.731999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="70"/>
+      <c r="B34" s="69">
+        <v>4</v>
+      </c>
+      <c r="C34" s="43">
+        <v>4</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="79">
+        <v>72.099000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="23">
+        <v>16</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="80">
+        <v>20.684000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="24">
+        <v>48</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="81">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="70"/>
+      <c r="B37" s="69">
+        <v>5</v>
+      </c>
+      <c r="C37" s="43">
+        <v>4</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="79">
+        <v>57.77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="23">
+        <v>16</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="80">
+        <v>16.568000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="24">
+        <v>48</v>
+      </c>
+      <c r="D39" s="59"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="81">
+        <v>6.617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="72">
+        <v>2</v>
+      </c>
+      <c r="C41" s="43">
+        <v>4</v>
+      </c>
+      <c r="D41" s="57">
+        <v>32</v>
+      </c>
+      <c r="E41" s="63">
+        <v>10</v>
+      </c>
+      <c r="F41" s="66">
+        <v>13707</v>
+      </c>
+      <c r="G41" s="76">
+        <v>135.51900000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="70"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="23">
+        <v>16</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="77">
+        <v>39.136000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="70"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="24">
+        <v>48</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="78">
+        <v>16.254999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="70"/>
+      <c r="B44" s="72">
+        <v>3</v>
+      </c>
+      <c r="C44" s="43">
+        <v>4</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="76">
+        <v>70.448999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="70"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="23">
+        <v>16</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="77">
+        <v>21.117000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="70"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="24">
+        <v>48</v>
+      </c>
+      <c r="D46" s="58"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="78">
+        <v>8.5180000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="70"/>
+      <c r="B47" s="69">
+        <v>4</v>
+      </c>
+      <c r="C47" s="43">
+        <v>4</v>
+      </c>
+      <c r="D47" s="58"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="79">
+        <v>48.143000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="23">
+        <v>16</v>
+      </c>
+      <c r="D48" s="58"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="80">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="70"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="24">
+        <v>48</v>
+      </c>
+      <c r="D49" s="58"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="81">
+        <v>5.633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="70"/>
+      <c r="B50" s="69">
+        <v>5</v>
+      </c>
+      <c r="C50" s="43">
+        <v>4</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="79">
+        <v>47.862000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="23">
+        <v>16</v>
+      </c>
+      <c r="D51" s="58"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="80">
+        <v>13.874000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="71"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="24">
+        <v>48</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="81">
+        <v>5.7249999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="72">
+        <v>2</v>
+      </c>
+      <c r="C54" s="43">
+        <v>4</v>
+      </c>
+      <c r="D54" s="57">
+        <v>32</v>
+      </c>
+      <c r="E54" s="63">
+        <v>12</v>
+      </c>
+      <c r="F54" s="66">
+        <v>18114</v>
+      </c>
+      <c r="G54" s="76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="70"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="23">
+        <v>16</v>
+      </c>
+      <c r="D55" s="58"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="77">
+        <v>168.57499999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="70"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="24">
+        <v>48</v>
+      </c>
+      <c r="D56" s="58"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="78">
+        <v>68.950999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="70"/>
+      <c r="B57" s="72">
+        <v>3</v>
+      </c>
+      <c r="C57" s="43">
+        <v>4</v>
+      </c>
+      <c r="D57" s="58"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="76">
+        <v>329.08800000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="70"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="23">
+        <v>16</v>
+      </c>
+      <c r="D58" s="58"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="77">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="70"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="24">
+        <v>48</v>
+      </c>
+      <c r="D59" s="58"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="78">
+        <v>36.404000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="70"/>
+      <c r="B60" s="69">
+        <v>4</v>
+      </c>
+      <c r="C60" s="43">
+        <v>4</v>
+      </c>
+      <c r="D60" s="58"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="79">
+        <v>235.19399999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="23">
+        <v>16</v>
+      </c>
+      <c r="D61" s="58"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="80">
+        <v>65.305999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="70"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="24">
+        <v>48</v>
+      </c>
+      <c r="D62" s="58"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="81">
+        <v>25.420999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="70"/>
+      <c r="B63" s="69">
+        <v>5</v>
+      </c>
+      <c r="C63" s="43">
+        <v>4</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="79">
+        <v>184.65600000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="23">
+        <v>16</v>
+      </c>
+      <c r="D64" s="58"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="80">
+        <v>49.018999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="71"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="24">
+        <v>48</v>
+      </c>
+      <c r="D65" s="59"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="81">
+        <v>19.106000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="72">
+        <v>2</v>
+      </c>
+      <c r="C67" s="43">
+        <v>4</v>
+      </c>
+      <c r="D67" s="57">
+        <v>35</v>
+      </c>
+      <c r="E67" s="63">
+        <v>12</v>
+      </c>
+      <c r="F67" s="66"/>
+      <c r="G67" s="76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="70"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="23">
+        <v>16</v>
+      </c>
+      <c r="D68" s="58"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="77">
+        <v>409.52100000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="70"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="24">
+        <v>48</v>
+      </c>
+      <c r="D69" s="58"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="78">
+        <v>167.191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="70"/>
+      <c r="B70" s="72">
+        <v>3</v>
+      </c>
+      <c r="C70" s="43">
+        <v>4</v>
+      </c>
+      <c r="D70" s="58"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="70"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="23">
+        <v>16</v>
+      </c>
+      <c r="D71" s="58"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="77">
+        <v>227.46899999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="70"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="24">
+        <v>48</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="78">
+        <v>89.105999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="70"/>
+      <c r="B73" s="69">
+        <v>4</v>
+      </c>
+      <c r="C73" s="43">
+        <v>4</v>
+      </c>
+      <c r="D73" s="58"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="79">
+        <v>562.41899999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="23">
+        <v>16</v>
+      </c>
+      <c r="D74" s="58"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="80">
+        <v>157.291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="70"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="24">
+        <v>48</v>
+      </c>
+      <c r="D75" s="58"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="81">
+        <v>61.055999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="70"/>
+      <c r="B76" s="69">
+        <v>5</v>
+      </c>
+      <c r="C76" s="43">
+        <v>4</v>
+      </c>
+      <c r="D76" s="58"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="79">
+        <v>455.55799999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="23">
+        <v>16</v>
+      </c>
+      <c r="D77" s="58"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="80">
+        <v>127.795</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="24">
+        <v>48</v>
+      </c>
+      <c r="D78" s="59"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="81">
+        <v>49.298000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D67:D78"/>
+    <mergeCell ref="E67:E78"/>
+    <mergeCell ref="F67:F78"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
+    <mergeCell ref="F54:F65"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D41:D52"/>
+    <mergeCell ref="E41:E52"/>
+    <mergeCell ref="F41:F52"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E15:E26"/>
+    <mergeCell ref="F15:F26"/>
+    <mergeCell ref="E28:E39"/>
+    <mergeCell ref="F28:F39"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="D28:D39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D26"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>